--- a/data/butterfly.xlsx
+++ b/data/butterfly.xlsx
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,6 +114,73 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,6 +192,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -133,51 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -186,32 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,28 +255,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,10 +464,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -488,12 +505,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -523,36 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -566,52 +566,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,94 +623,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,6 +866,14 @@
           <a:r>
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Было изучено 16 поселений бабочек, обитающих в разных условиях.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
+            <a:t>В каждом поселении определяли чатоту 6 аллелей (количестов особей несущих данную аллель).</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
